--- a/ours/phone/results/std.xlsx
+++ b/ours/phone/results/std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02381691411339548</v>
+        <v>0.02351401393852868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2417747123429473</v>
+        <v>0.2492388855246261</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1823551159826287</v>
+        <v>0.1901974301190879</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1525147215213967</v>
+        <v>0.1573023517208715</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2152776010932161</v>
+        <v>0.2256367871735375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1525147215213967</v>
+        <v>0.1573023517208715</v>
       </c>
       <c r="I2" t="n">
-        <v>0.129863216060072</v>
+        <v>0.1338316346900825</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03826097304554989</v>
+        <v>0.04299570532902681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1052555810554187</v>
+        <v>0.09097712559951369</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1675932952203545</v>
+        <v>0.1622915838928195</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1519262488260124</v>
+        <v>0.1483562958987475</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1449631215031595</v>
+        <v>0.1360069551195805</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1519262488260124</v>
+        <v>0.1483562958987475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06439913081337083</v>
+        <v>0.05893078914921178</v>
       </c>
     </row>
     <row r="4">
@@ -549,492 +549,1050 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05321844306964432</v>
+        <v>0.0539541446932303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02546615765644406</v>
+        <v>0.02342768739308198</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08003901878963625</v>
+        <v>0.08474919112606384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.103359808751652</v>
+        <v>0.1134673256869837</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0472601315981139</v>
+        <v>0.05042832154802525</v>
       </c>
       <c r="H4" t="n">
-        <v>0.103359808751652</v>
+        <v>0.1134673256869837</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03294274397124365</v>
+        <v>0.03309661892061481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1659335054833355</v>
+        <v>0.02381691411339548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2914478518572534</v>
+        <v>0.2417747123429473</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2134891458897676</v>
+        <v>0.1823551159826287</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1977269095052668</v>
+        <v>0.1525147215213967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2507447116008826</v>
+        <v>0.2152776010932161</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1983643948133647</v>
+        <v>0.1525147215213967</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2114644978635101</v>
+        <v>0.129863216060072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1671296914366236</v>
+        <v>0.03826097304554989</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2956855367511975</v>
+        <v>0.1052555810554187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2488980004179426</v>
+        <v>0.1675932952203545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2241276522211208</v>
+        <v>0.1519262488260124</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2775534485073008</v>
+        <v>0.1449631215031595</v>
       </c>
       <c r="H6" t="n">
-        <v>0.225087516958633</v>
+        <v>0.1519262488260124</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2134336759074484</v>
+        <v>0.06439913081337083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1646179587591304</v>
+        <v>0.05321844306964432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0955862057066738</v>
+        <v>0.02546615765644406</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1812279433138129</v>
+        <v>0.08003901878963625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1860478357660946</v>
+        <v>0.103359808751652</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1338406891096958</v>
+        <v>0.0472601315981139</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1821931830334149</v>
+        <v>0.103359808751652</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1063159996433207</v>
+        <v>0.03294274397124365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04852047213073275</v>
+        <v>0.1606153630887643</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1730574760620339</v>
+        <v>0.2943216564764815</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07531306063088936</v>
+        <v>0.2134176577312073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06982113875786557</v>
+        <v>0.1935136743416535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1205542543774773</v>
+        <v>0.2513673394452478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06994256918211494</v>
+        <v>0.1939060366425025</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1062433877045372</v>
+        <v>0.2113178375228656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1203994858237713</v>
+        <v>0.182243865921932</v>
       </c>
       <c r="D9" t="n">
-        <v>0.279269240582044</v>
+        <v>0.2679362953089897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1637352668457323</v>
+        <v>0.2729616560899023</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1486084274349976</v>
+        <v>0.2493180820296124</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2203758231307022</v>
+        <v>0.2758925760700493</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1497040442249772</v>
+        <v>0.2490219636658859</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1915647166414161</v>
+        <v>0.1984900002219879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1700310787390586</v>
+        <v>0.1520778643829343</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1691237553002188</v>
+        <v>0.08345945967236428</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2191492652084844</v>
+        <v>0.1591616108838745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1982703861352957</v>
+        <v>0.1730458533261304</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2014335042930503</v>
+        <v>0.1222645548147637</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1994494973902946</v>
+        <v>0.1715970365714666</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1579929552274215</v>
+        <v>0.09442350123305017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02903871022052249</v>
+        <v>0.1659335054833355</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1239611798344504</v>
+        <v>0.2914478518572534</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04442458291807441</v>
+        <v>0.2134891458897676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04289035111921424</v>
+        <v>0.1977269095052668</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08498767458241487</v>
+        <v>0.2507447116008826</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04350797541043312</v>
+        <v>0.1983643948133647</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07366732157604662</v>
+        <v>0.2114644978635101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1003629010631709</v>
+        <v>0.1671296914366236</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2466613763163837</v>
+        <v>0.2956855367511975</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1282515804129956</v>
+        <v>0.2488980004179426</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1191186825415557</v>
+        <v>0.2241276522211208</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1871446533499486</v>
+        <v>0.2775534485073008</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1208977117095561</v>
+        <v>0.225087516958633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1668805391947734</v>
+        <v>0.2134336759074484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1732670350486161</v>
+        <v>0.1646179587591305</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2133665717198037</v>
+        <v>0.0955862057066738</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2259509989033343</v>
+        <v>0.1812279433138129</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2075407401196895</v>
+        <v>0.1860478357660946</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2288950572068525</v>
+        <v>0.1338406891096958</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2108565370279904</v>
+        <v>0.1821931830334149</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1833587644422602</v>
+        <v>0.1063159996433207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007539554777250829</v>
+        <v>0.05275870325803798</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0586667144280336</v>
+        <v>0.1832966266441995</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02354002427670178</v>
+        <v>0.08428486525127259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02536453328862161</v>
+        <v>0.07991300087700441</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0465722462426916</v>
+        <v>0.1372622268897325</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02546253819310521</v>
+        <v>0.08002093409363646</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03236133303096776</v>
+        <v>0.1132754174410796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03012978272669299</v>
+        <v>0.1315470466419351</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1261227975066243</v>
+        <v>0.2820128868491468</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05800260317347372</v>
+        <v>0.1837148706255309</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05501830633400343</v>
+        <v>0.1591502801040382</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09442184355315594</v>
+        <v>0.2399417932911595</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05520314427944749</v>
+        <v>0.1602274410751125</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07547423091466879</v>
+        <v>0.1983438570803034</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.132594786229356</v>
+        <v>0.1566875469701366</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2929240655607173</v>
+        <v>0.1508538921864087</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1938958745675954</v>
+        <v>0.2106947361222901</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1788636975503526</v>
+        <v>0.1957305790767322</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2521461004220164</v>
+        <v>0.1903227001108919</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1797037420777412</v>
+        <v>0.1962011496700181</v>
       </c>
       <c r="I16" t="n">
-        <v>0.206402476904966</v>
+        <v>0.1419304874911399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02128825662350986</v>
+        <v>0.04852047213073275</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1073234682150559</v>
+        <v>0.1730574760620339</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04803226701467625</v>
+        <v>0.07531306063088936</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04586286911501597</v>
+        <v>0.06982113875786557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0878739109414981</v>
+        <v>0.1205542543774773</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04586286911501597</v>
+        <v>0.06994256918211494</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06251138518153182</v>
+        <v>0.1062433877045372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05862936457412336</v>
+        <v>0.1203994858237713</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1722541641649512</v>
+        <v>0.279269240582044</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08276311285567015</v>
+        <v>0.1637352668457323</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07959141715326989</v>
+        <v>0.1486084274349976</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1322980108417186</v>
+        <v>0.2203758231307022</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07982090516301116</v>
+        <v>0.1497040442249772</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1112651241602209</v>
+        <v>0.1915647166414161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
+        <v>0.1700310787390586</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1691237553002188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2191492652084844</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1982703861352957</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2014335042930503</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1994494973902946</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1579929552274215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05836094941219648</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1594790295236498</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07005319741670586</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.07072541503125845</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1209883452316729</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07326143854306409</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1030354162627108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1025280610115852</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2583709167715791</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1434881809511536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1288289799066365</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2090238167054413</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1298708196622069</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1736341847727043</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1665164155877962</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1955636662135223</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.218992529586703</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2003435209383604</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2142386100169077</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2023406599304311</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1703629532526649</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0290387102205225</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1239611798344504</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.04442458291807441</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04289035111921424</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.08498767458241487</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.04350797541043312</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.07366732157604662</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1003629010631709</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2466613763163837</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1282515804129956</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1191186825415557</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1871446533499486</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1208977117095561</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1668805391947734</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1732670350486161</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2133665717198037</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2259509989033343</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2075407401196895</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2288950572068526</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2108565370279904</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1833587644422602</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0100110976546067</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.07534844812650314</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03160200163890459</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03168666577262557</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.06138307191033456</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03168666577262557</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.04166676446622149</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02435347217650067</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1203166099648802</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05712577303135829</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05492228407487553</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1034194810749176</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.05492228407487553</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.07045957250754337</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1285517014973225</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2867863604426102</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1886256189427191</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1712393012845658</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2438223271703115</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1717125048773364</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2016753417307885</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.007539554777250829</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0586667144280336</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02354002427670178</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02536453328862161</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0465722462426916</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02546253819310521</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03236133303096776</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.03012978272669299</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1261227975066243</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.05800260317347372</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.05501830633400343</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.09442184355315594</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.05520314427944749</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0754742309146688</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.132594786229356</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2929240655607173</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1938958745675954</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1788636975503526</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2521461004220164</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1797037420777412</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.206402476904966</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.03322736898752569</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1182109806457031</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.05536023875727819</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05383164648692865</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.09584140285666716</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.05383164648692865</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.07278979651025579</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.09676573650372478</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2302355472714445</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1247996266803086</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1189179264489289</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.185838711512163</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1202147469102536</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1578407906226224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1909534047042615</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2772601559538053</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2489423103359922</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2254258177259792</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2735837420079886</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.2279635634803181</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2254190216251033</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02128825662350986</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1073234682150559</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.04803226701467625</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.04586286911501597</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.08787391094149809</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04586286911501597</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.06251138518153182</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05862936457412336</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1722541641649512</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.08276311285567015</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.07959141715326991</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1322980108417186</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.07982090516301116</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1112651241602209</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.1608304395493643</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D37" t="n">
         <v>0.3104496040618395</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E37" t="n">
         <v>0.2111206747397198</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F37" t="n">
         <v>0.1925630347581793</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G37" t="n">
         <v>0.270301797064856</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H37" t="n">
         <v>0.1943138480172026</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I37" t="n">
         <v>0.2291861229748101</v>
       </c>
     </row>

--- a/ours/phone/results/std.xlsx
+++ b/ours/phone/results/std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>O-CoAtNet</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -514,7 +514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>O-CoAtNet</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -545,7 +545,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>O-CoAtNet</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -576,1024 +576,466 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02381691411339548</v>
+        <v>0.1606153630887643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2417747123429473</v>
+        <v>0.2943216564764815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1823551159826287</v>
+        <v>0.2134176577312073</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1525147215213967</v>
+        <v>0.1935136743416535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2152776010932161</v>
+        <v>0.2513673394452478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1525147215213967</v>
+        <v>0.1939060366425025</v>
       </c>
       <c r="I5" t="n">
-        <v>0.129863216060072</v>
+        <v>0.2113178375228656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03826097304554989</v>
+        <v>0.182243865921932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052555810554187</v>
+        <v>0.2679362953089897</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1675932952203545</v>
+        <v>0.2729616560899023</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1519262488260124</v>
+        <v>0.2493180820296124</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1449631215031595</v>
+        <v>0.2758925760700493</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1519262488260124</v>
+        <v>0.2490219636658859</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06439913081337083</v>
+        <v>0.1984900002219879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05321844306964432</v>
+        <v>0.1520778643829343</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02546615765644406</v>
+        <v>0.08345945967236428</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08003901878963625</v>
+        <v>0.1591616108838745</v>
       </c>
       <c r="F7" t="n">
-        <v>0.103359808751652</v>
+        <v>0.1730458533261304</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0472601315981139</v>
+        <v>0.1222645548147637</v>
       </c>
       <c r="H7" t="n">
-        <v>0.103359808751652</v>
+        <v>0.1715970365714666</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03294274397124365</v>
+        <v>0.09442350123305017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1606153630887643</v>
+        <v>0.05275870325803798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2943216564764815</v>
+        <v>0.1832966266441995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2134176577312073</v>
+        <v>0.08428486525127259</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1935136743416535</v>
+        <v>0.07991300087700441</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2513673394452478</v>
+        <v>0.1372622268897325</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1939060366425025</v>
+        <v>0.08002093409363646</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2113178375228656</v>
+        <v>0.1132754174410796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182243865921932</v>
+        <v>0.1315470466419351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2679362953089897</v>
+        <v>0.2820128868491468</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2729616560899023</v>
+        <v>0.1837148706255309</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2493180820296124</v>
+        <v>0.1591502801040382</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2758925760700493</v>
+        <v>0.2399417932911595</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2490219636658859</v>
+        <v>0.1602274410751125</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1984900002219879</v>
+        <v>0.1983438570803034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1520778643829343</v>
+        <v>0.1566875469701366</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08345945967236428</v>
+        <v>0.1508538921864087</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1591616108838745</v>
+        <v>0.2106947361222901</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1730458533261304</v>
+        <v>0.1957305790767322</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1222645548147637</v>
+        <v>0.1903227001108919</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1715970365714666</v>
+        <v>0.1962011496700181</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09442350123305017</v>
+        <v>0.1419304874911399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1659335054833355</v>
+        <v>0.05836094941219648</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2914478518572534</v>
+        <v>0.1594790295236498</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2134891458897676</v>
+        <v>0.07005319741670586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1977269095052668</v>
+        <v>0.07072541503125845</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2507447116008826</v>
+        <v>0.1209883452316729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1983643948133647</v>
+        <v>0.07326143854306409</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2114644978635101</v>
+        <v>0.1030354162627108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1671296914366236</v>
+        <v>0.1025280610115852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2956855367511975</v>
+        <v>0.2583709167715791</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2488980004179426</v>
+        <v>0.1434881809511536</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2241276522211208</v>
+        <v>0.1288289799066365</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2775534485073008</v>
+        <v>0.2090238167054413</v>
       </c>
       <c r="H12" t="n">
-        <v>0.225087516958633</v>
+        <v>0.1298708196622069</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2134336759074484</v>
+        <v>0.1736341847727043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1646179587591305</v>
+        <v>0.1665164155877962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0955862057066738</v>
+        <v>0.1955636662135223</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1812279433138129</v>
+        <v>0.218992529586703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1860478357660946</v>
+        <v>0.2003435209383604</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1338406891096958</v>
+        <v>0.2142386100169077</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1821931830334149</v>
+        <v>0.2023406599304311</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1063159996433207</v>
+        <v>0.1703629532526649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05275870325803798</v>
+        <v>0.0100110976546067</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1832966266441995</v>
+        <v>0.07534844812650314</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08428486525127259</v>
+        <v>0.03160200163890459</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07991300087700441</v>
+        <v>0.03168666577262557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1372622268897325</v>
+        <v>0.06138307191033456</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08002093409363646</v>
+        <v>0.03168666577262557</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1132754174410796</v>
+        <v>0.04166676446622149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1315470466419351</v>
+        <v>0.02435347217650067</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2820128868491468</v>
+        <v>0.1203166099648802</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1837148706255309</v>
+        <v>0.05712577303135829</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1591502801040382</v>
+        <v>0.05492228407487553</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2399417932911595</v>
+        <v>0.1034194810749176</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1602274410751125</v>
+        <v>0.05492228407487553</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1983438570803034</v>
+        <v>0.07045957250754337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1566875469701366</v>
+        <v>0.1285517014973225</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1508538921864087</v>
+        <v>0.2867863604426102</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2106947361222901</v>
+        <v>0.1886256189427191</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1957305790767322</v>
+        <v>0.1712393012845658</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1903227001108919</v>
+        <v>0.2438223271703115</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1962011496700181</v>
+        <v>0.1717125048773364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1419304874911399</v>
+        <v>0.2016753417307885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04852047213073275</v>
+        <v>0.01505291975522441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1730574760620339</v>
+        <v>0.07342416407783312</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07531306063088936</v>
+        <v>0.03235452500864494</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06982113875786557</v>
+        <v>0.03369328370576829</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1205542543774773</v>
+        <v>0.05956829181290853</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06994256918211494</v>
+        <v>0.03369328370576829</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1062433877045372</v>
+        <v>0.04282470477878871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1203994858237713</v>
+        <v>0.04622024971742045</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279269240582044</v>
+        <v>0.1560469759357588</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1637352668457323</v>
+        <v>0.07333482848474805</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1486084274349976</v>
+        <v>0.07060559042096888</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2203758231307022</v>
+        <v>0.1233013719353282</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1497040442249772</v>
+        <v>0.07087453189660704</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1915647166414161</v>
+        <v>0.09805729332263979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1700310787390586</v>
+        <v>0.1429287501161411</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1691237553002188</v>
+        <v>0.3020329357597777</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2191492652084844</v>
+        <v>0.1911817796248169</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1982703861352957</v>
+        <v>0.1764198711497682</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2014335042930503</v>
+        <v>0.2538773284319038</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1994494973902946</v>
+        <v>0.1786702006369848</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1579929552274215</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05836094941219648</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1594790295236498</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.07005319741670586</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.07072541503125845</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1209883452316729</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.07326143854306409</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.1030354162627108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1025280610115852</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.2583709167715791</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1434881809511536</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1288289799066365</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2090238167054413</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1298708196622069</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.1736341847727043</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1665164155877962</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1955636662135223</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.218992529586703</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2003435209383604</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2142386100169077</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.2023406599304311</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.1703629532526649</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0290387102205225</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1239611798344504</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.04442458291807441</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.04289035111921424</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.08498767458241487</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.04350797541043312</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.07366732157604662</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1003629010631709</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.2466613763163837</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1282515804129956</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1191186825415557</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1871446533499486</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.1208977117095561</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.1668805391947734</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1732670350486161</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.2133665717198037</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.2259509989033343</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2075407401196895</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2288950572068526</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2108565370279904</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1833587644422602</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0100110976546067</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.07534844812650314</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03160200163890459</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.03168666577262557</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.06138307191033456</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.03168666577262557</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.04166676446622149</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.02435347217650067</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1203166099648802</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.05712577303135829</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.05492228407487553</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.1034194810749176</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.05492228407487553</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.07045957250754337</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1285517014973225</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.2867863604426102</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1886256189427191</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.1712393012845658</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.2438223271703115</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.1717125048773364</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.2016753417307885</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.007539554777250829</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0586667144280336</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.02354002427670178</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.02536453328862161</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0465722462426916</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.02546253819310521</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.03236133303096776</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.03012978272669299</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1261227975066243</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.05800260317347372</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.05501830633400343</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.09442184355315594</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.05520314427944749</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.0754742309146688</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.132594786229356</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.2929240655607173</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1938958745675954</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.1788636975503526</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2521461004220164</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1797037420777412</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.206402476904966</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.03322736898752569</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1182109806457031</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.05536023875727819</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.05383164648692865</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.09584140285666716</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.05383164648692865</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.07278979651025579</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.09676573650372478</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.2302355472714445</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.1247996266803086</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.1189179264489289</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.185838711512163</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1202147469102536</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.1578407906226224</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.1909534047042615</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.2772601559538053</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2489423103359922</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2254258177259792</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.2735837420079886</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.2279635634803181</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.2254190216251033</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.02128825662350986</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.1073234682150559</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.04803226701467625</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.04586286911501597</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.08787391094149809</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.04586286911501597</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.06251138518153182</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.05862936457412336</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1722541641649512</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.08276311285567015</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.07959141715326991</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1322980108417186</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.07982090516301116</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.1112651241602209</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.1608304395493643</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.3104496040618395</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2111206747397198</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1925630347581793</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.270301797064856</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.1943138480172026</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.2291861229748101</v>
+        <v>0.2149513864765178</v>
       </c>
     </row>
   </sheetData>

--- a/ours/phone/results/std.xlsx
+++ b/ours/phone/results/std.xlsx
@@ -948,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -979,7 +979,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1010,7 +1010,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B19" t="n">
